--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999998316924029</v>
+        <v>0.9999919691916495</v>
       </c>
       <c r="E2">
-        <v>0.9999998316924029</v>
+        <v>0.9999919691916495</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999982922465437</v>
+        <v>0.9999998948690316</v>
       </c>
       <c r="E3">
-        <v>0.9999982922465437</v>
+        <v>0.9999998948690316</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.00332070595819E-09</v>
+        <v>1.149104031854136E-21</v>
       </c>
       <c r="E4">
-        <v>3.00332070595819E-09</v>
+        <v>1.149104031854136E-21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0004120451515810414</v>
+        <v>0.0001429388540569712</v>
       </c>
       <c r="E5">
-        <v>0.0004120451515810414</v>
+        <v>0.0001429388540569712</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -509,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9999938483241894</v>
+        <v>0.2450349435315865</v>
       </c>
       <c r="E6">
-        <v>0.9999938483241894</v>
+        <v>0.2450349435315865</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999998514508</v>
+        <v>0.999999999796088</v>
       </c>
       <c r="E7">
-        <v>1.485491729624755E-10</v>
+        <v>2.039119983976434E-10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999847</v>
+        <v>0.9999999999966604</v>
       </c>
       <c r="E8">
-        <v>1.532107773982716E-14</v>
+        <v>3.339550858072471E-12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.000444316895414E-05</v>
+        <v>0.0006436159059134271</v>
       </c>
       <c r="E9">
-        <v>0.999979995556831</v>
+        <v>0.9993563840940866</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9999999999999782</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.176037128265307E-14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0001690596048121278</v>
+        <v>8.292513112645639E-06</v>
       </c>
       <c r="E11">
-        <v>0.9998309403951878</v>
+        <v>0.9999917074868874</v>
       </c>
       <c r="F11">
-        <v>6.038181781768799</v>
+        <v>4.71300745010376</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
